--- a/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.pt.xlsx
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Selecionar o tipo de instância de máquina virtual correto é fundamental, pois afeta diretamente o custo de execução de aplicativos no AKS. A escolha de uma instância de alta performance sem a utilização adequada pode levar a gastos desnecessários, enquanto a escolha de uma instância poderosa pode levar a problemas de performance e aumento do tempo de inatividade. Para determinar o tipo de instância de máquina virtual correto, considere as características da carga de trabalho, os requisitos de recursos e as necessidades de disponibilidade.</t>
+          <t>Selecionar o tipo de instância de máquina virtual correto é fundamental, pois afeta diretamente o custo de execução de aplicativos no AKS. A escolha de uma instância de alta performance sem a utilização adequada pode levar a gastos desnecessários, enquanto a escolha de uma instância menos potente pode levar a problemas de performance e aumento do tempo de inatividade. Para determinar o tipo de instância de máquina virtual correto, considere as características da carga de trabalho, os requisitos de recursos e as necessidades de disponibilidade.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>

--- a/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.pt.xlsx
@@ -1163,12 +1163,12 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: configure o monitoramento do cluster com insights de contêiner.</t>
+          <t>Arquitetura de cluster: use zonas de disponibilidade para maximizar a resiliência em uma região do Azure distribuindo nós de agente do AKS em data centers fisicamente separados.</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Os insights de contêiner ajudam a monitorar a integridade e o desempenho de controladores, nós e contêineres disponíveis no Kubernetes por meio da API de Métricas. A integração com o Prometheus permite a coleta de métricas de aplicativos e cargas de trabalho.</t>
+          <t>Ao distribuir pools de nós em várias zonas, os nós em um pool de nós continuarão em execução mesmo que outra zona tenha ficado inativa. Se houver requisitos de colocalidade, uma implantação regular do AKS baseada em VMSS em uma única zona ou grupos de posicionamento por proximidade poderão ser usados para minimizar a latência entre nós.</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>76d86a61-446d-4597-a547-9ba4d9c25377</t>
+          <t>29400c1f-e4ff-4ab5-89ff-be93d51d5fa8</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use zonas de disponibilidade para maximizar a resiliência em uma região do Azure distribuindo nós de agente do AKS em data centers fisicamente separados.</t>
+          <t>Arquitetura de cluster: adote uma estratégia de várias regiões implantando clusters do AKS implantados em diferentes regiões do Azure para maximizar a disponibilidade e fornecer continuidade dos negócios.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Ao distribuir pools de nós em várias zonas, os nós em um pool de nós continuarão em execução mesmo que outra zona tenha ficado inativa. Se houver requisitos de colocalidade, uma implantação regular do AKS baseada em VMSS em uma única zona ou grupos de posicionamento por proximidade poderão ser usados para minimizar a latência entre nós.</t>
+          <t>As cargas de trabalho voltadas para a Internet devem aproveitar o Azure Front Door ou o Gerenciador de Tráfego do Azure para rotear o tráfego globalmente entre clusters do AKS.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1218,7 +1218,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>29400c1f-e4ff-4ab5-89ff-be93d51d5fa8</t>
+          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: adote uma estratégia de várias regiões implantando clusters do AKS implantados em diferentes regiões do Azure para maximizar a disponibilidade e fornecer continuidade dos negócios.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: defina solicitações e limites de recursos de pod em manifestos de implantação de aplicativo e imponha com Azure Policy.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>As cargas de trabalho voltadas para a Internet devem aproveitar o Azure Front Door ou o Gerenciador de Tráfego do Azure para rotear o tráfego globalmente entre clusters do AKS.</t>
+          <t>Os limites de recursos de CPU e memória do contêiner são necessários para evitar o esgotamento de recursos no cluster do Kubernetes.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1252,7 +1252,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
+          <t>f230e754-6818-4428-b2ad-7ad543723f80</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1265,12 +1265,12 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: defina solicitações e limites de recursos de pod em manifestos de implantação de aplicativo e imponha com Azure Policy.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: mantenha o pool de nós do sistema isolado das cargas de trabalho do aplicativo.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Os limites de recursos de CPU e memória do contêiner são necessários para evitar o esgotamento de recursos no cluster do Kubernetes.</t>
+          <t>Os pools de nós do sistema exigem um SKU de VM de pelo menos 2 vCPUs e 4 GB de memória, mas 4 vCPUs ou mais são recomendados. Sistema de referência e pools de nós do usuário para requisitos detalhados.</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1286,7 +1286,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>f230e754-6818-4428-b2ad-7ad543723f80</t>
+          <t>f51b6cdd-3914-4e11-a8e8-f2cf61788e84</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: mantenha o pool de nós do sistema isolado das cargas de trabalho do aplicativo.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: Separe aplicativos para pools de nós dedicados com base em requisitos específicos.</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Os pools de nós do sistema exigem um SKU de VM de pelo menos 2 vCPUs e 4 GB de memória, mas 4 vCPUs ou mais são recomendados. Sistema de referência e pools de nós do usuário para requisitos detalhados.</t>
+          <t>Os aplicativos podem compartilhar a mesma configuração e precisar de VMs habilitadas para GPU, VMs otimizadas para CPU ou memória ou a capacidade de escalar para zero. Evite um grande número de pools de nós para reduzir a sobrecarga de gerenciamento extra.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1320,7 +1320,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>f51b6cdd-3914-4e11-a8e8-f2cf61788e84</t>
+          <t>e303e4a0-0b81-47bd-bd44-bede44825fa2</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: Separe aplicativos para pools de nós dedicados com base em requisitos específicos.</t>
+          <t>Arquitetura de cluster: use um gateway NAT para clusters que executam cargas de trabalho que fazem muitas conexões de saída simultâneas.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Os aplicativos podem compartilhar a mesma configuração e precisar de VMs habilitadas para GPU, VMs otimizadas para CPU ou memória ou a capacidade de escalar para zero. Evite um grande número de pools de nós para reduzir a sobrecarga de gerenciamento extra.</t>
+          <t>Para evitar problemas de confiabilidade com as limitações do Azure Load Balancer com alto tráfego de saída simultâneo, use um Gateway NAT para dar suporte ao tráfego de saída confiável em escala.</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1354,7 +1354,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>e303e4a0-0b81-47bd-bd44-bede44825fa2</t>
+          <t>ff84fa04-ee66-4605-85f3-803dd2cab3c4</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use um gateway NAT para clusters que executam cargas de trabalho que fazem muitas conexões de saída simultâneas.</t>
+          <t>Arquitetura de cluster: use a integração do Microsoft Entra.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>Para evitar problemas de confiabilidade com as limitações do Azure Load Balancer com alto tráfego de saída simultâneo, use um Gateway NAT para dar suporte ao tráfego de saída confiável em escala.</t>
+          <t>O uso do Microsoft Entra ID centraliza o componente de gerenciamento de identidade. Qualquer alteração no status da conta de usuário ou do grupo é atualizada automaticamente no acesso ao cluster do AKS. Os desenvolvedores e proprietários de aplicativos do cluster do Kubernetes precisam de acesso a recursos diferentes.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1388,7 +1388,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>ff84fa04-ee66-4605-85f3-803dd2cab3c4</t>
+          <t>03a24546-1e4a-46d6-ad0c-63e80d157b51</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use a integração do Microsoft Entra.</t>
+          <t>Arquitetura de cluster: autentique com a ID do Microsoft Entra no Registro de Contêiner do Azure.</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>O uso do Microsoft Entra ID centraliza o componente de gerenciamento de identidade. Qualquer alteração no status da conta de usuário ou do grupo é atualizada automaticamente no acesso ao cluster do AKS. Os desenvolvedores e proprietários de aplicativos do cluster do Kubernetes precisam de acesso a recursos diferentes.</t>
+          <t>O AKS e a ID do Microsoft Entra habilitam a autenticação com o Registro de Contêiner do Azure sem o uso de segredos 'imagePullSecrets'. Examine Autenticar com o Registro de Contêiner do Azure do Serviço de Kubernetes do Azure para obter mais informações.</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1422,7 +1422,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>03a24546-1e4a-46d6-ad0c-63e80d157b51</t>
+          <t>dc50fb2f-f5e9-4ea2-a1b8-36fbf1e1bec4</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1435,12 +1435,12 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: autentique com a ID do Microsoft Entra no Registro de Contêiner do Azure.</t>
+          <t>Arquitetura de cluster: proteja o tráfego de rede para o servidor de API com o cluster AKS privado.</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>O AKS e a ID do Microsoft Entra habilitam a autenticação com o Registro de Contêiner do Azure sem o uso de segredos 'imagePullSecrets'. Examine Autenticar com o Registro de Contêiner do Azure do Serviço de Kubernetes do Azure para obter mais informações.</t>
+          <t>Por padrão, o tráfego de rede entre os pools de nós e o servidor de API viaja pela rede de backbone da Microsoft; usando um cluster privado, você pode garantir que o tráfego de rede para o servidor de API permaneça somente na rede privada.</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1456,7 +1456,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>dc50fb2f-f5e9-4ea2-a1b8-36fbf1e1bec4</t>
+          <t>3d11d647-363f-469c-bea9-9ef27a9bee70</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: proteja o tráfego de rede para o servidor de API com o cluster AKS privado.</t>
+          <t>Arquitetura de cluster: para clusters do AKS não privados, use intervalos de IP autorizados pelo servidor de API.</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Por padrão, o tráfego de rede entre os pools de nós e o servidor de API viaja pela rede de backbone da Microsoft; usando um cluster privado, você pode garantir que o tráfego de rede para o servidor de API permaneça somente na rede privada.</t>
+          <t>Ao usar clusters públicos, você ainda pode limitar o tráfego que pode chegar ao servidor de API de clusters usando o recurso de intervalo de IP autorizado. Inclua fontes como os IPs públicos de seus agentes de build de implantação, gerenciamento de operações e ponto de saída de pools de nós (como Firewall do Azure).</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>3d11d647-363f-469c-bea9-9ef27a9bee70</t>
+          <t>0418c965-c483-41bc-933c-9289108b8ad0</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1503,12 +1503,12 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: para clusters do AKS não privados, use intervalos de IP autorizados pelo servidor de API.</t>
+          <t>Arquitetura de cluster: proteja o servidor de API com o RBAC do Microsoft Entra.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Ao usar clusters públicos, você ainda pode limitar o tráfego que pode chegar ao servidor de API de clusters usando o recurso de intervalo de IP autorizado. Inclua fontes como os IPs públicos de seus agentes de build de implantação, gerenciamento de operações e ponto de saída de pools de nós (como Firewall do Azure).</t>
+          <t>Proteger o acesso ao Kubernetes API Server é uma das coisas mais importantes que você pode fazer para proteger seu cluster. Integre o RBAC (controle de acesso baseado em função) do Kubernetes com a ID do Microsoft Entra para controlar o acesso ao servidor de API. Desabilite contas locais para impor todo o acesso ao cluster usando identidades baseadas em ID do Microsoft Entra.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1524,7 +1524,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>0418c965-c483-41bc-933c-9289108b8ad0</t>
+          <t>951727b0-fd7b-4d09-8ae6-384f8441c234</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: proteja o servidor de API com o RBAC do Microsoft Entra.</t>
+          <t>Arquitetura de cluster: use políticas de rede do Azure ou Calico.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Proteger o acesso ao Kubernetes API Server é uma das coisas mais importantes que você pode fazer para proteger seu cluster. Integre o RBAC (controle de acesso baseado em função) do Kubernetes com a ID do Microsoft Entra para controlar o acesso ao servidor de API. Desabilite contas locais para impor todo o acesso ao cluster usando identidades baseadas em ID do Microsoft Entra.</t>
+          <t>Proteja e controle o tráfego de rede entre pods em um cluster.</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1558,7 +1558,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>951727b0-fd7b-4d09-8ae6-384f8441c234</t>
+          <t>68a66542-3c31-43c4-8a16-a05ab2a4df5f</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use políticas de rede do Azure ou Calico.</t>
+          <t>Arquitetura de cluster: proteja clusters e pods com o Azure Policy.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Proteja e controle o tráfego de rede entre pods em um cluster.</t>
+          <t>O Azure Policy pode ajudar a aplicar imposições e proteções em escala em seus clusters de maneira centralizada e consistente. Ele também pode controlar quais funções os pods são concedidos e se algo está sendo executado contra a política da empresa.</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>68a66542-3c31-43c4-8a16-a05ab2a4df5f</t>
+          <t>c99d155b-6a13-4f61-8672-356b1ed3a922</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1605,12 +1605,12 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: proteja clusters e pods com o Azure Policy.</t>
+          <t>Arquitetura de cluster: acesso seguro de contêiner aos recursos.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>O Azure Policy pode ajudar a aplicar imposições e proteções em escala em seus clusters de maneira centralizada e consistente. Ele também pode controlar quais funções os pods são concedidos e se algo está sendo executado contra a política da empresa.</t>
+          <t>Limite o acesso às ações que os contêineres podem executar. Forneça o menor número de permissões e evite o uso de escalonamento raiz ou privilegiado.</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1626,7 +1626,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>c99d155b-6a13-4f61-8672-356b1ed3a922</t>
+          <t>43384eb1-7b95-44aa-9c60-e09652b18521</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: acesso seguro de contêiner aos recursos.</t>
+          <t>Arquitetura de carga de trabalho: use um firewall de aplicativo Web para proteger o tráfego HTTP(S).</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Limite o acesso às ações que os contêineres podem executar. Forneça o menor número de permissões e evite o uso de escalonamento raiz ou privilegiado.</t>
+          <t>Para verificar o tráfego de entrada em busca de possíveis ataques, use um firewall de aplicativo Web, como o WAF (Firewall de Aplicativo Web) do Azure no Gateway de Aplicativo do Azure ou no Azure Front Door.</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1660,7 +1660,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>43384eb1-7b95-44aa-9c60-e09652b18521</t>
+          <t>ae6a3199-847d-4901-bad1-63be20d584b8</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1673,12 +1673,12 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: use um firewall de aplicativo Web para proteger o tráfego HTTP(S).</t>
+          <t>Arquitetura do cluster: controle o tráfego de saída do cluster.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Para verificar o tráfego de entrada em busca de possíveis ataques, use um firewall de aplicativo Web, como o WAF (Firewall de Aplicativo Web) do Azure no Gateway de Aplicativo do Azure ou no Azure Front Door.</t>
+          <t>Verifique se o tráfego de saída do cluster está passando por um ponto de segurança de rede, como o Firewall do Azure ou um proxy HTTP.</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1694,7 +1694,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>ae6a3199-847d-4901-bad1-63be20d584b8</t>
+          <t>d67db716-6569-4a40-b18f-01052c02399f</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1707,12 +1707,12 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura do cluster: controle o tráfego de saída do cluster.</t>
+          <t>Arquitetura de cluster: use a ID de carga de trabalho do Microsoft Entra de software livre e o driver CSI do repositório de segredos com o Azure Key Vault.</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Verifique se o tráfego de saída do cluster está passando por um ponto de segurança de rede, como o Firewall do Azure ou um proxy HTTP.</t>
+          <t>Proteja e gire segredos, certificados e cadeias de conexão no Azure Key Vault com criptografia forte. Fornece um log de auditoria de acesso e mantém os segredos principais fora do pipeline de implantação.</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1727,7 +1727,7 @@
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>d67db716-6569-4a40-b18f-01052c02399f</t>
+          <t>bc5240f0-9c6d-469e-bf71-9f8d4bf18c29</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1740,12 +1740,12 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use a ID de carga de trabalho do Microsoft Entra de software livre e o driver CSI do repositório de segredos com o Azure Key Vault.</t>
+          <t>Arquitetura de cluster: use Microsoft Defender para Contêineres.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Proteja e gire segredos, certificados e cadeias de conexão no Azure Key Vault com criptografia forte. Fornece um log de auditoria de acesso e mantém os segredos principais fora do pipeline de implantação.</t>
+          <t>Monitore e mantenha a segurança de seus clusters, contêineres e seus aplicativos.</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1760,7 +1760,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>bc5240f0-9c6d-469e-bf71-9f8d4bf18c29</t>
+          <t>2ac2d30a-a96a-4d14-b63d-7e2e3147ea9e</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1773,12 +1773,12 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use Microsoft Defender para Contêineres.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: alinhe a seleção de SKU e o tamanho do disco gerenciado com os requisitos de carga de trabalho.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Monitore e mantenha a segurança de seus clusters, contêineres e seus aplicativos.</t>
+          <t>Combinar sua seleção com suas demandas de carga de trabalho garante que você não pague por recursos desnecessários.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1793,7 +1793,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>2ac2d30a-a96a-4d14-b63d-7e2e3147ea9e</t>
+          <t>93a3ae7a-6f04-471b-bb3f-5eb4e6664c5b</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -1806,12 +1806,12 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: alinhe a seleção de SKU e o tamanho do disco gerenciado com os requisitos de carga de trabalho.</t>
+          <t>Arquitetura de cluster: selecione o tipo de instância de máquina virtual correto.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>Combinar sua seleção com suas demandas de carga de trabalho garante que você não pague por recursos desnecessários.</t>
+          <t>Selecionar o tipo de instância de máquina virtual correto é fundamental, pois afeta diretamente o custo de execução de aplicativos no AKS. A escolha de uma instância de alta performance sem a utilização adequada pode levar a gastos desnecessários, enquanto a escolha de uma instância menos potente pode levar a problemas de performance e aumento do tempo de inatividade. Para determinar o tipo de instância de máquina virtual correto, considere as características da carga de trabalho, os requisitos de recursos e as necessidades de disponibilidade.</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1826,7 +1826,7 @@
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>93a3ae7a-6f04-471b-bb3f-5eb4e6664c5b</t>
+          <t>f16a2684-c225-4fd5-8202-8ea1db7f18e7</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -1839,12 +1839,12 @@
       <c r="B31" s="21" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: selecione o tipo de instância de máquina virtual correto.</t>
+          <t>Arquitetura de cluster: selecione máquinas virtuais com base na arquitetura Arm.</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Selecionar o tipo de instância de máquina virtual correto é fundamental, pois afeta diretamente o custo de execução de aplicativos no AKS. A escolha de uma instância de alta performance sem a utilização adequada pode levar a gastos desnecessários, enquanto a escolha de uma instância menos potente pode levar a problemas de performance e aumento do tempo de inatividade. Para determinar o tipo de instância de máquina virtual correto, considere as características da carga de trabalho, os requisitos de recursos e as necessidades de disponibilidade.</t>
+          <t>O AKS dá suporte à criação de nós de agente do Ubuntu ARM64, bem como uma combinação de nós de arquitetura Intel e ARM em um cluster que pode trazer melhor desempenho a um custo menor.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1859,7 +1859,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>f16a2684-c225-4fd5-8202-8ea1db7f18e7</t>
+          <t>f0572fdc-24e3-4e6c-8c90-0ba85cc6f52a</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="B32" s="21" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: selecione máquinas virtuais com base na arquitetura Arm.</t>
+          <t>Arquitetura de cluster: selecione Máquinas Virtuais Spot do Azure.</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>O AKS dá suporte à criação de nós de agente do Ubuntu ARM64, bem como uma combinação de nós de arquitetura Intel e ARM em um cluster que pode trazer melhor desempenho a um custo menor.</t>
+          <t>As VMs spot permitem que você aproveite a capacidade não utilizada do Azure com descontos significativos (até 90% em comparação com os preços pagos conforme o uso). Se o Azure precisar de capacidade de volta, a infraestrutura do Azure removerá os nós spot.</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1893,7 +1893,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>f0572fdc-24e3-4e6c-8c90-0ba85cc6f52a</t>
+          <t>15372689-94ad-4247-a157-fde418217ce4</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -1906,12 +1906,12 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: selecione Máquinas Virtuais Spot do Azure.</t>
+          <t>Arquitetura de cluster: selecione a região apropriada.</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>As VMs spot permitem que você aproveite a capacidade não utilizada do Azure com descontos significativos (até 90% em comparação com os preços pagos conforme o uso). Se o Azure precisar de capacidade de volta, a infraestrutura do Azure removerá os nós spot.</t>
+          <t>Devido a muitos fatores, o custo dos recursos varia de acordo com a região no Azure. Avalie os requisitos de custo, latência e conformidade para garantir que você esteja executando sua carga de trabalho de maneira econômica e que ela não afete seus usuários finais nem crie cobranças extras de rede.</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -1927,7 +1927,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>15372689-94ad-4247-a157-fde418217ce4</t>
+          <t>41a6e1ef-d63a-4e26-842f-1a0cde3abaa6</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -1940,12 +1940,12 @@
       <c r="B34" s="21" t="n"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: selecione a região apropriada.</t>
+          <t>Arquitetura de carga de trabalho: mantenha imagens pequenas e otimizadas.</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Devido a muitos fatores, o custo dos recursos varia de acordo com a região no Azure. Avalie os requisitos de custo, latência e conformidade para garantir que você esteja executando sua carga de trabalho de maneira econômica e que ela não afete seus usuários finais nem crie cobranças extras de rede.</t>
+          <t>Simplificar suas imagens ajuda a reduzir custos, pois novos nós precisam baixar essas imagens. Crie imagens de uma forma que permita que o contêiner seja iniciado o mais rápido possível para ajudar a evitar falhas de solicitação do usuário ou tempos limite enquanto o aplicativo está sendo inicializado, potencialmente levando ao superprovisionamento.</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
@@ -1961,7 +1961,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>41a6e1ef-d63a-4e26-842f-1a0cde3abaa6</t>
+          <t>e689c267-1eaa-444d-806e-c5a0735658de</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -1974,12 +1974,12 @@
       <c r="B35" s="21" t="n"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: mantenha imagens pequenas e otimizadas.</t>
+          <t>Arquitetura de cluster: habilite o Dimensionador Automático de Cluster para reduzir automaticamente o número de nós do agente em resposta ao excesso de capacidade de recursos.</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Simplificar suas imagens ajuda a reduzir custos, pois novos nós precisam baixar essas imagens. Crie imagens de uma forma que permita que o contêiner seja iniciado o mais rápido possível para ajudar a evitar falhas de solicitação do usuário ou tempos limite enquanto o aplicativo está sendo inicializado, potencialmente levando ao superprovisionamento.</t>
+          <t>Reduzir verticalmente automaticamente o número de nós no cluster do AKS permite que você execute um cluster eficiente quando a demanda é baixa e escale verticalmente quando a demanda retornar.</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>
@@ -1995,7 +1995,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>e689c267-1eaa-444d-806e-c5a0735658de</t>
+          <t>e770ea75-690d-4dc0-a0e4-43c17b6bb56f</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2008,12 +2008,12 @@
       <c r="B36" s="21" t="n"/>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: habilite o Dimensionador Automático de Cluster para reduzir automaticamente o número de nós do agente em resposta ao excesso de capacidade de recursos.</t>
+          <t>Arquitetura de cluster: habilite o provisionamento automático de nó para automatizar a seleção de SKU de VM.</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>Reduzir verticalmente automaticamente o número de nós no cluster do AKS permite que você execute um cluster eficiente quando a demanda é baixa e escale verticalmente quando a demanda retornar.</t>
+          <t>O Node Autoprovision simplifica o processo de seleção de SKU e decide, com base nos requisitos de recursos de pod pendentes, a configuração ideal da VM para executar cargas de trabalho da maneira mais eficiente e econômica.</t>
         </is>
       </c>
       <c r="E36" s="21" t="n"/>
@@ -2029,7 +2029,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>e770ea75-690d-4dc0-a0e4-43c17b6bb56f</t>
+          <t>9994ccff-d3d4-46e3-92cb-d04231859e20</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2042,12 +2042,12 @@
       <c r="B37" s="21" t="n"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: habilite o provisionamento automático de nó para automatizar a seleção de SKU de VM.</t>
+          <t>Arquitetura de carga de trabalho: use o Horizontal Pod Autoscaler.</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>O Node Autoprovision simplifica o processo de seleção de SKU e decide, com base nos requisitos de recursos de pod pendentes, a configuração ideal da VM para executar cargas de trabalho da maneira mais eficiente e econômica.</t>
+          <t>Ajuste o número de pods em uma implantação dependendo da utilização da CPU ou de outras métricas selecionadas, que dão suporte a operações de redução horizontal do cluster.</t>
         </is>
       </c>
       <c r="E37" s="21" t="n"/>
@@ -2063,7 +2063,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>9994ccff-d3d4-46e3-92cb-d04231859e20</t>
+          <t>1321c176-e53a-4451-91cf-e4e50c637d07</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2076,12 +2076,12 @@
       <c r="B38" s="21" t="n"/>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: use o Horizontal Pod Autoscaler.</t>
+          <t>Arquitetura de carga de trabalho: use o Vertical Pod Autoscaler (versão prévia).</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>Ajuste o número de pods em uma implantação dependendo da utilização da CPU ou de outras métricas selecionadas, que dão suporte a operações de redução horizontal do cluster.</t>
+          <t>Dimensione corretamente seus pods e defina dinamicamente solicitações e limites com base no uso histórico.</t>
         </is>
       </c>
       <c r="E38" s="21" t="n"/>
@@ -2097,7 +2097,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>1321c176-e53a-4451-91cf-e4e50c637d07</t>
+          <t>554e18fe-b835-4e78-8d27-6f49999855ad</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2110,12 +2110,12 @@
       <c r="B39" s="21" t="n"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: use o Vertical Pod Autoscaler (versão prévia).</t>
+          <t>Arquitetura de carga de trabalho: use o Kubernetes Event Driven Autoscaling (KEDA).</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>Dimensione corretamente seus pods e defina dinamicamente solicitações e limites com base no uso histórico.</t>
+          <t>Dimensione com base no número de eventos que estão sendo processados. Escolha entre um rico catálogo de 50+ scalers KEDA.</t>
         </is>
       </c>
       <c r="E39" s="21" t="n"/>
@@ -2131,7 +2131,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>554e18fe-b835-4e78-8d27-6f49999855ad</t>
+          <t>fe15f362-a48d-4a25-aa3e-7938b3d1f5e2</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2144,12 +2144,12 @@
       <c r="B40" s="21" t="n"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: use o Kubernetes Event Driven Autoscaling (KEDA).</t>
+          <t>Arquiteturas de cluster e carga de trabalho: adote uma disciplina financeira de nuvem e uma prática cultural para impulsionar a propriedade do uso da nuvem.</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>Dimensione com base no número de eventos que estão sendo processados. Escolha entre um rico catálogo de 50+ scalers KEDA.</t>
+          <t>A base para habilitar a otimização de custos é a disseminação de um cluster de economia de custos. Uma abordagem de operações financeiras (FinOps) é frequentemente usada para ajudar as organizações a reduzir os custos da nuvem. É uma prática que envolve a colaboração entre as equipes de finanças, operações e engenharia para impulsionar o alinhamento das metas de economia de custos e trazer transparência aos custos da nuvem.</t>
         </is>
       </c>
       <c r="E40" s="21" t="n"/>
@@ -2165,7 +2165,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>fe15f362-a48d-4a25-aa3e-7938b3d1f5e2</t>
+          <t>d0ed8b85-2072-4952-a00c-697135e435a2</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2178,12 +2178,12 @@
       <c r="B41" s="21" t="n"/>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: adote uma disciplina financeira de nuvem e uma prática cultural para impulsionar a propriedade do uso da nuvem.</t>
+          <t>Arquitetura de cluster: inscreva-se nas Reservas do Azure ou no Plano de Economia do Azure.</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>A base para habilitar a otimização de custos é a disseminação de um cluster de economia de custos. Uma abordagem de operações financeiras (FinOps) é frequentemente usada para ajudar as organizações a reduzir os custos da nuvem. É uma prática que envolve a colaboração entre as equipes de finanças, operações e engenharia para impulsionar o alinhamento das metas de economia de custos e trazer transparência aos custos da nuvem.</t>
+          <t>Se você planejou corretamente a capacidade, sua carga de trabalho é previsível e existe por um longo período de tempo, inscreva-se em uma Reserva do Azure ou em um plano de economia para reduzir ainda mais seus custos de recursos.</t>
         </is>
       </c>
       <c r="E41" s="21" t="n"/>
@@ -2199,7 +2199,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>d0ed8b85-2072-4952-a00c-697135e435a2</t>
+          <t>9d4b8d27-c793-4862-94c8-c2505205f07f</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2212,12 +2212,12 @@
       <c r="B42" s="21" t="n"/>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: inscreva-se nas Reservas do Azure ou no Plano de Economia do Azure.</t>
+          <t>Arquitetura de cluster: configure o complemento Análise de Custos do AKS.</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Se você planejou corretamente a capacidade, sua carga de trabalho é previsível e existe por um longo período de tempo, inscreva-se em uma Reserva do Azure ou em um plano de economia para reduzir ainda mais seus custos de recursos.</t>
+          <t>A extensão de cluster de análise de custos permite que você obtenha insights granulares sobre os custos associados a vários recursos do Kubernetes em seus clusters ou namespaces.</t>
         </is>
       </c>
       <c r="E42" s="21" t="n"/>
@@ -2233,7 +2233,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>9d4b8d27-c793-4862-94c8-c2505205f07f</t>
+          <t>43cae555-15bd-4cd7-90b9-905d40528506</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2246,12 +2246,12 @@
       <c r="B43" s="21" t="n"/>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: configure o monitoramento do cluster com insights de contêiner.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: examine a documentação de práticas recomendadas do AKS.</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>Os insights de contêiner ajudam a fornecer insights acionáveis sobre os recursos ociosos e não alocados dos clusters. Os insights de contêiner também dão suporte à coleta de métricas do Prometheus e se integram ao Azure Managed Grafana para obter uma visão holística do aplicativo e da infraestrutura.</t>
+          <t>Para criar e executar aplicativos com êxito no AKS, há considerações importantes a serem entendidas e implementadas. Essas áreas incluem recursos de agendamento e multilocação, segurança de cluster e pod ou continuidade dos negócios e recuperação de desastres.</t>
         </is>
       </c>
       <c r="E43" s="21" t="n"/>
@@ -2267,7 +2267,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>f4113186-82e7-495e-90e8-0da553de3039</t>
+          <t>4ea51e35-26bb-4a2b-a7ca-435eb6d857b9</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2280,12 +2280,12 @@
       <c r="B44" s="21" t="n"/>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: configure o complemento Análise de Custos do AKS.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: examine o Azure Chaos Studio.</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>A extensão de cluster de análise de custos permite que você obtenha insights granulares sobre os custos associados a vários recursos do Kubernetes em seus clusters ou namespaces.</t>
+          <t>O Azure Chaos Studio pode ajudar a simular falhas e disparar situações de recuperação de desastre.</t>
         </is>
       </c>
       <c r="E44" s="21" t="n"/>
@@ -2301,7 +2301,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>43cae555-15bd-4cd7-90b9-905d40528506</t>
+          <t>d38b720a-0b27-409f-9dfa-28f698067a19</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2314,12 +2314,12 @@
       <c r="B45" s="21" t="n"/>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: examine a documentação de práticas recomendadas do AKS.</t>
+          <t>Arquitetura de cluster: adote uma estratégia de várias regiões implantando clusters do AKS implantados em diferentes regiões do Azure para maximizar a disponibilidade e fornecer continuidade dos negócios.</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>Para criar e executar aplicativos com êxito no AKS, há considerações importantes a serem entendidas e implementadas. Essas áreas incluem recursos de agendamento e multilocação, segurança de cluster e pod ou continuidade dos negócios e recuperação de desastres.</t>
+          <t>As cargas de trabalho voltadas para a Internet devem aproveitar o Azure Front Door ou o Gerenciador de Tráfego do Azure para rotear o tráfego globalmente entre clusters do AKS.</t>
         </is>
       </c>
       <c r="E45" s="21" t="n"/>
@@ -2334,7 +2334,7 @@
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>4ea51e35-26bb-4a2b-a7ca-435eb6d857b9</t>
+          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2347,12 +2347,12 @@
       <c r="B46" s="21" t="n"/>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: examine o Azure Chaos Studio.</t>
+          <t>Arquitetura de cluster: operacionalize os padrões de configuração de clusters e pods com o Azure Policy.</t>
         </is>
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t>O Azure Chaos Studio pode ajudar a simular falhas e disparar situações de recuperação de desastre.</t>
+          <t>O Azure Policy pode ajudar a aplicar imposições e proteções em escala em seus clusters de maneira centralizada e consistente. Ele também pode controlar quais funções os pods são concedidos e se algo está sendo executado contra a política da empresa.</t>
         </is>
       </c>
       <c r="E46" s="21" t="n"/>
@@ -2368,7 +2368,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>d38b720a-0b27-409f-9dfa-28f698067a19</t>
+          <t>4fa55d17-b08b-4885-8d5b-d8cfbe3eda59</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2381,12 +2381,12 @@
       <c r="B47" s="21" t="n"/>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: configure o monitoramento do cluster com insights de contêiner.</t>
+          <t>Arquitetura de carga de trabalho: use os recursos da plataforma em seu processo de engenharia de lançamento.</t>
         </is>
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>Os insights de contêiner ajudam a monitorar o desempenho de contêineres coletando métricas de memória e processador de controladores, nós e contêineres disponíveis no Kubernetes por meio da API de Métricas e dos logs de contêiner.</t>
+          <t>O Kubernetes e os controladores de entrada oferecem suporte a muitos padrões avançados de implantação para inclusão em seu processo de engenharia de lançamento. Considere padrões como implantações azul-verde ou versões canário.</t>
         </is>
       </c>
       <c r="E47" s="21" t="n"/>
@@ -2402,7 +2402,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>76d86a61-446d-4597-a547-9ba4d9c25377</t>
+          <t>40bf5a02-ca6a-410d-9b6a-87fe75ff0873</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2415,12 +2415,12 @@
       <c r="B48" s="21" t="n"/>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: monitore o desempenho do aplicativo com o Azure Monitor.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: para cargas de trabalho críticas, use implantações azul/verde no nível do selo.</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>Configure o Application Insights para monitoramento baseado em código de aplicativos em execução em um cluster do AKS.</t>
+          <t>Automatize suas áreas de projeto de missão crítica, incluindo implantação e teste.</t>
         </is>
       </c>
       <c r="E48" s="21" t="n"/>
@@ -2435,7 +2435,7 @@
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>b7c8f991-0c99-4f2e-8ed9-1b0bcffc2b42</t>
+          <t>dec76a46-6005-4c3e-ac2c-70b7214a28ba</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2448,12 +2448,12 @@
       <c r="B49" s="21" t="n"/>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: configure a extração de métricas do Prometheus com insights de contêiner.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: desenvolva um plano de capacidade detalhado e revise e revise continuamente.</t>
         </is>
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>Os insights de contêiner, que fazem parte do Azure Monitor, fornecem uma experiência de integração perfeita para coletar métricas do Prometheus. Consulte Configurar a extração de métricas do Prometheus para obter mais informações.</t>
+          <t>Depois de formalizar seu plano de capacidade, ele deve ser atualizado com frequência, observando continuamente a utilização de recursos do cluster.</t>
         </is>
       </c>
       <c r="E49" s="21" t="n"/>
@@ -2468,7 +2468,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>959a2059-d560-4f51-8f9a-c68b0a595beb</t>
+          <t>9f2cef22-f674-4702-a57a-5dcf90bf9143</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2481,12 +2481,12 @@
       <c r="B50" s="21" t="n"/>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: adote uma estratégia de várias regiões implantando clusters do AKS implantados em diferentes regiões do Azure para maximizar a disponibilidade e fornecer continuidade dos negócios.</t>
+          <t>Arquitetura de cluster: habilite o dimensionador automático de cluster para ajustar automaticamente o número de nós do agente em resposta a restrições de recursos.</t>
         </is>
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>As cargas de trabalho voltadas para a Internet devem aproveitar o Azure Front Door ou o Gerenciador de Tráfego do Azure para rotear o tráfego globalmente entre clusters do AKS.</t>
+          <t>A capacidade de escalar ou reduzir verticalmente automaticamente o número de nós no cluster do AKS permite que você execute um cluster eficiente e econômico.</t>
         </is>
       </c>
       <c r="E50" s="21" t="n"/>
@@ -2502,7 +2502,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
+          <t>d50d653b-0d8d-44ca-8ba6-9963321d1f24</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2515,12 +2515,12 @@
       <c r="B51" s="21" t="n"/>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: operacionalize os padrões de configuração de clusters e pods com o Azure Policy.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: separe as cargas de trabalho em pools de nós diferentes e considere dimensionar pools de nós do usuário.</t>
         </is>
       </c>
       <c r="D51" s="21" t="inlineStr">
         <is>
-          <t>O Azure Policy pode ajudar a aplicar imposições e proteções em escala em seus clusters de maneira centralizada e consistente. Ele também pode controlar quais funções os pods são concedidos e se algo está sendo executado contra a política da empresa.</t>
+          <t>Ao contrário dos pools de nós do sistema que sempre exigem nós em execução, os pools de nós do usuário permitem que você aumente ou diminua verticalmente.</t>
         </is>
       </c>
       <c r="E51" s="21" t="n"/>
@@ -2536,7 +2536,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>4fa55d17-b08b-4885-8d5b-d8cfbe3eda59</t>
+          <t>cd14e737-9478-4fb4-9556-586b03d5e248</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -2549,12 +2549,12 @@
       <c r="B52" s="21" t="n"/>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: use os recursos da plataforma em seu processo de engenharia de lançamento.</t>
+          <t>Arquitetura de carga de trabalho: use os recursos avançados do agendador do AKS.</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>O Kubernetes e os controladores de entrada oferecem suporte a muitos padrões avançados de implantação para inclusão em seu processo de engenharia de lançamento. Considere padrões como implantações azul-verde ou versões canário.</t>
+          <t>Ajuda a controlar o balanceamento de recursos para cargas de trabalho que os exigem.</t>
         </is>
       </c>
       <c r="E52" s="21" t="n"/>
@@ -2570,7 +2570,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>40bf5a02-ca6a-410d-9b6a-87fe75ff0873</t>
+          <t>e452f566-2a10-4119-a802-aeab44201971</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -2583,12 +2583,12 @@
       <c r="B53" s="21" t="n"/>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: para cargas de trabalho críticas, use implantações azul/verde no nível do selo.</t>
+          <t>Arquitetura de carga de trabalho: use métricas significativas de dimensionamento de carga de trabalho.</t>
         </is>
       </c>
       <c r="D53" s="21" t="inlineStr">
         <is>
-          <t>Automatize suas áreas de projeto de missão crítica, incluindo implantação e teste.</t>
+          <t>Nem todas as decisões de escala podem ser derivadas de métricas de CPU ou memória. Muitas vezes, as considerações de escala virão de pontos de dados mais complexos ou mesmo externos. Use o KEDA para criar um conjunto de regras de dimensionamento automático significativo com base em sinais específicos para sua carga de trabalho.</t>
         </is>
       </c>
       <c r="E53" s="21" t="n"/>
@@ -2603,7 +2603,7 @@
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>dec76a46-6005-4c3e-ac2c-70b7214a28ba</t>
+          <t>43df6223-dfca-447d-9b00-f4742ef18be1</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -2614,32 +2614,15 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="n"/>
       <c r="B54" s="21" t="n"/>
-      <c r="C54" s="21" t="inlineStr">
-        <is>
-          <t>Arquiteturas de cluster e carga de trabalho: desenvolva um plano de capacidade detalhado e revise e revise continuamente.</t>
-        </is>
-      </c>
-      <c r="D54" s="21" t="inlineStr">
-        <is>
-          <t>Depois de formalizar seu plano de capacidade, ele deve ser atualizado com frequência, observando continuamente a utilização de recursos do cluster.</t>
-        </is>
-      </c>
+      <c r="C54" s="21" t="n"/>
+      <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="n"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="n"/>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="inlineStr">
-        <is>
-          <t>9f2cef22-f674-4702-a57a-5dcf90bf9143</t>
-        </is>
-      </c>
+      <c r="L54" s="25" t="n"/>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
@@ -2648,31 +2631,14 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="n"/>
       <c r="B55" s="21" t="n"/>
-      <c r="C55" s="21" t="inlineStr">
-        <is>
-          <t>Arquitetura de cluster: habilite o dimensionador automático de cluster para ajustar automaticamente o número de nós do agente em resposta a restrições de recursos.</t>
-        </is>
-      </c>
-      <c r="D55" s="21" t="inlineStr">
-        <is>
-          <t>A capacidade de escalar ou reduzir verticalmente automaticamente o número de nós no cluster do AKS permite que você execute um cluster eficiente e econômico.</t>
-        </is>
-      </c>
+      <c r="C55" s="21" t="n"/>
+      <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="n"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="n"/>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="inlineStr">
-        <is>
-          <t>d50d653b-0d8d-44ca-8ba6-9963321d1f24</t>
-        </is>
-      </c>
+      <c r="L55" s="25" t="n"/>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
@@ -2681,31 +2647,14 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="n"/>
       <c r="B56" s="21" t="n"/>
-      <c r="C56" s="21" t="inlineStr">
-        <is>
-          <t>Arquiteturas de cluster e carga de trabalho: separe as cargas de trabalho em pools de nós diferentes e considere dimensionar pools de nós do usuário.</t>
-        </is>
-      </c>
-      <c r="D56" s="21" t="inlineStr">
-        <is>
-          <t>Ao contrário dos pools de nós do sistema que sempre exigem nós em execução, os pools de nós do usuário permitem que você aumente ou diminua verticalmente.</t>
-        </is>
-      </c>
+      <c r="C56" s="21" t="n"/>
+      <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="n"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="n"/>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="inlineStr">
-        <is>
-          <t>cd14e737-9478-4fb4-9556-586b03d5e248</t>
-        </is>
-      </c>
+      <c r="L56" s="25" t="n"/>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
@@ -2714,31 +2663,14 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="n"/>
       <c r="B57" s="21" t="n"/>
-      <c r="C57" s="21" t="inlineStr">
-        <is>
-          <t>Arquitetura de carga de trabalho: use os recursos avançados do agendador do AKS.</t>
-        </is>
-      </c>
-      <c r="D57" s="21" t="inlineStr">
-        <is>
-          <t>Ajuda a controlar o balanceamento de recursos para cargas de trabalho que os exigem.</t>
-        </is>
-      </c>
+      <c r="C57" s="21" t="n"/>
+      <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="n"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="n"/>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="inlineStr">
-        <is>
-          <t>e452f566-2a10-4119-a802-aeab44201971</t>
-        </is>
-      </c>
+      <c r="L57" s="25" t="n"/>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
@@ -2747,31 +2679,14 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="n"/>
       <c r="B58" s="21" t="n"/>
-      <c r="C58" s="21" t="inlineStr">
-        <is>
-          <t>Arquitetura de carga de trabalho: use métricas significativas de dimensionamento de carga de trabalho.</t>
-        </is>
-      </c>
-      <c r="D58" s="21" t="inlineStr">
-        <is>
-          <t>Nem todas as decisões de escala podem ser derivadas de métricas de CPU ou memória. Muitas vezes, as considerações de escala virão de pontos de dados mais complexos ou mesmo externos. Use o KEDA para criar um conjunto de regras de dimensionamento automático significativo com base em sinais específicos para sua carga de trabalho.</t>
-        </is>
-      </c>
+      <c r="C58" s="21" t="n"/>
+      <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="n"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="n"/>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="inlineStr">
-        <is>
-          <t>43df6223-dfca-447d-9b00-f4742ef18be1</t>
-        </is>
-      </c>
+      <c r="L58" s="25" t="n"/>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
@@ -6674,7 +6589,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F59" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
